--- a/Daisy-xls/ResearchPages/research-multiple-myeloma.xlsx
+++ b/Daisy-xls/ResearchPages/research-multiple-myeloma.xlsx
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,12 +156,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,6 +234,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,7 +544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,7 +583,9 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="20">
+        <v>488730</v>
+      </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
@@ -582,7 +602,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="20">
+        <v>892451</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
@@ -600,7 +622,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="20">
+        <v>637658</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
@@ -618,7 +642,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="20">
+        <v>476532</v>
+      </c>
       <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
@@ -636,7 +662,9 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="20">
+        <v>84135</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>

--- a/Daisy-xls/ResearchPages/research-multiple-myeloma.xlsx
+++ b/Daisy-xls/ResearchPages/research-multiple-myeloma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>/treatment/research/denosumab-to-prevent-bone-problems</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="A1:F6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +674,9 @@
       <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="15">
         <v>40702</v>
       </c>
